--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\marsframework-master\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A5A76A-B409-42AF-9D01-2A354707A25C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7B8A5-99E0-4B8E-BF9F-C8004F179F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Url</t>
   </si>
@@ -83,91 +83,142 @@
     <t>Testing</t>
   </si>
   <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>mvpstudio.qa@gmail.com</t>
+  </si>
+  <si>
+    <t>SydneyQa2018</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>14/10/2019</t>
+  </si>
+  <si>
+    <t>10/15/2019</t>
+  </si>
+  <si>
+    <t>08:30AM</t>
+  </si>
+  <si>
+    <t>06:30PM</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t>Location Type</t>
+  </si>
+  <si>
+    <t>WorkSample</t>
+  </si>
+  <si>
+    <t>Video &amp; Animation</t>
+  </si>
+  <si>
+    <t>Promotion Videos</t>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
+  </si>
+  <si>
+    <t>3D animation</t>
+  </si>
+  <si>
+    <t>I like to study java</t>
+  </si>
+  <si>
+    <t>Music &amp; Audio</t>
+  </si>
+  <si>
+    <t>Voice Over</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
     <t>Selenium</t>
   </si>
   <si>
-    <t>Would like to provide selenium training for beginners</t>
-  </si>
-  <si>
-    <t>Skill-Exchange</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Programming &amp; Tech</t>
-  </si>
-  <si>
-    <t>One-off service</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>LocationType</t>
-  </si>
-  <si>
-    <t>Startdate</t>
-  </si>
-  <si>
-    <t>Enddate</t>
-  </si>
-  <si>
-    <t>Starttime</t>
-  </si>
-  <si>
-    <t>Endtime</t>
-  </si>
-  <si>
-    <t>SkillTrade</t>
-  </si>
-  <si>
-    <t>On-site</t>
-  </si>
-  <si>
-    <t>Performance Testing</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>Selectday</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>mvpstudio.qa@gmail.com</t>
-  </si>
-  <si>
-    <t>SydneyQa2018</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>14/10/2019</t>
-  </si>
-  <si>
-    <t>10/15/2019</t>
-  </si>
-  <si>
-    <t>08:30AM</t>
-  </si>
-  <si>
-    <t>06:30PM</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Selenium and java</t>
+  </si>
+  <si>
+    <t>15/12/2019</t>
+  </si>
+  <si>
+    <t>15/11/2019</t>
   </si>
 </sst>
 </file>
@@ -662,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -681,10 +732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,40 +762,40 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -753,52 +804,96 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43750</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43811</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6312A3D6-94DE-4E4B-811C-C185FB5A0579}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -839,37 +934,37 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>16</v>
@@ -881,52 +976,52 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
         <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4701C865-4FC5-4856-9B0B-CA1FD304F7AF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -946,12 +1041,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\marsframework-master\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7B8A5-99E0-4B8E-BF9F-C8004F179F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D840596F-9C04-41D2-9576-5B3B5B6D27BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
-    <sheet name="Edit" sheetId="4" r:id="rId4"/>
-    <sheet name="ManageListings" sheetId="6" r:id="rId5"/>
+    <sheet name="ProfileData" sheetId="7" r:id="rId3"/>
+    <sheet name="Search" sheetId="8" r:id="rId4"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId5"/>
+    <sheet name="Edit" sheetId="4" r:id="rId6"/>
+    <sheet name="ManageListings" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>Url</t>
   </si>
@@ -219,6 +221,54 @@
   </si>
   <si>
     <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>SydneyQa2019</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>EarnTarget</t>
+  </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>More than 30hours a week</t>
+  </si>
+  <si>
+    <t>More than $1000 per month</t>
+  </si>
+  <si>
+    <t>DescriptionData</t>
+  </si>
+  <si>
+    <t>I am a QA Engineer</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Priyanka Singh</t>
+  </si>
+  <si>
+    <t>I design beautiful logos</t>
   </si>
 </sst>
 </file>
@@ -684,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +769,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -731,11 +789,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249B951-CACF-423A-9DE4-BC0644629B3B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140965A-3AE8-4AD8-96D1-4F64242E831B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +979,7 @@
         <v>31</v>
       </c>
       <c r="H2" s="4">
-        <v>43750</v>
+        <v>44016</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>64</v>
@@ -872,7 +1026,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="4">
-        <v>43811</v>
+        <v>44016</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>63</v>
@@ -902,7 +1056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6312A3D6-94DE-4E4B-811C-C185FB5A0579}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1029,7 +1183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4701C865-4FC5-4856-9B0B-CA1FD304F7AF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
